--- a/Ofis Dosyalari/HAKEDISLER/2025/HAZIRAN 2025/2025 HAZIRAN AYI - TURKLER.xlsx
+++ b/Ofis Dosyalari/HAKEDISLER/2025/HAZIRAN 2025/2025 HAZIRAN AYI - TURKLER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samil\OneDrive\Masaüstü\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\OfisDosyalariYedegi\Ofis Dosyalari\HAKEDISLER\2025\HAZIRAN 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDB0E0F-4606-46A5-9A01-588934038A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8868683-10A0-43DF-BE18-8AF3FF45BBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="30" windowWidth="28755" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -678,6 +676,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -687,14 +686,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="ParaBirimi 2" xfId="3" xr:uid="{FB247420-4A8B-46B8-AD14-047A5DA77D80}"/>
     <cellStyle name="ParaBirimi 3" xfId="4" xr:uid="{BF168A53-9392-4368-8CBE-852921DB8D90}"/>
     <cellStyle name="ParaBirimi 4" xfId="2" xr:uid="{888C2C55-0B34-4D51-85C7-3866F707377C}"/>
     <cellStyle name="ParaBirimi 5" xfId="1" xr:uid="{EE63A87A-5B93-493C-B961-DE1FE32CA3E6}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -975,39 +973,39 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="37"/>
-    </row>
-    <row r="2" spans="1:11" ht="43.8" thickBot="1">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
+    </row>
+    <row r="2" spans="1:11" ht="45.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1058,13 +1056,15 @@
         <v>2500</v>
       </c>
       <c r="G3" s="23">
-        <f>F3*K3</f>
+        <f t="shared" ref="G3:G15" si="0">F3*K3</f>
         <v>202500</v>
       </c>
-      <c r="H3" s="23"/>
+      <c r="H3" s="23">
+        <v>10000</v>
+      </c>
       <c r="I3" s="23">
         <f>G3-H3</f>
-        <v>202500</v>
+        <v>192500</v>
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="32">
@@ -1087,15 +1087,15 @@
         <v>2500</v>
       </c>
       <c r="G4" s="22">
-        <f>F4*K4</f>
+        <f t="shared" si="0"/>
         <v>202500</v>
       </c>
       <c r="H4" s="22">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="I4" s="22">
-        <f t="shared" ref="I4:I15" si="0">G4-H4</f>
-        <v>197500</v>
+        <f t="shared" ref="I4:I15" si="1">G4-H4</f>
+        <v>187500</v>
       </c>
       <c r="J4" s="28"/>
       <c r="K4" s="33">
@@ -1123,13 +1123,15 @@
         <v>2457</v>
       </c>
       <c r="G5" s="22">
-        <f>F5*K5</f>
-        <v>199017</v>
-      </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22">
         <f t="shared" si="0"/>
         <v>199017</v>
+      </c>
+      <c r="H5" s="22">
+        <v>5000</v>
+      </c>
+      <c r="I5" s="22">
+        <f t="shared" si="1"/>
+        <v>194017</v>
       </c>
       <c r="J5" s="28"/>
       <c r="K5" s="33">
@@ -1153,17 +1155,19 @@
         <v>7</v>
       </c>
       <c r="F6" s="12">
-        <f t="shared" ref="F6:F9" si="1">D6*E6</f>
+        <f t="shared" ref="F6:F9" si="2">D6*E6</f>
         <v>2548</v>
       </c>
       <c r="G6" s="22">
-        <f>F6*K6</f>
-        <v>206388</v>
-      </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22">
         <f t="shared" si="0"/>
         <v>206388</v>
+      </c>
+      <c r="H6" s="22">
+        <v>5000</v>
+      </c>
+      <c r="I6" s="22">
+        <f t="shared" si="1"/>
+        <v>201388</v>
       </c>
       <c r="J6" s="28"/>
       <c r="K6" s="33">
@@ -1187,16 +1191,16 @@
         <v>6</v>
       </c>
       <c r="F7" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2262</v>
       </c>
       <c r="G7" s="22">
-        <f>F7*K7</f>
+        <f t="shared" si="0"/>
         <v>183222</v>
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>183222</v>
       </c>
       <c r="J7" s="28"/>
@@ -1221,17 +1225,19 @@
         <v>7</v>
       </c>
       <c r="F8" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2541</v>
       </c>
       <c r="G8" s="22">
-        <f>F8*K8</f>
-        <v>205821</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22">
         <f t="shared" si="0"/>
         <v>205821</v>
+      </c>
+      <c r="H8" s="22">
+        <v>5000</v>
+      </c>
+      <c r="I8" s="22">
+        <f t="shared" si="1"/>
+        <v>200821</v>
       </c>
       <c r="J8" s="28"/>
       <c r="K8" s="33">
@@ -1255,17 +1261,19 @@
         <v>7</v>
       </c>
       <c r="F9" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2317</v>
       </c>
       <c r="G9" s="22">
-        <f>F9*K9</f>
-        <v>187677</v>
-      </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22">
         <f t="shared" si="0"/>
         <v>187677</v>
+      </c>
+      <c r="H9" s="22">
+        <v>5000</v>
+      </c>
+      <c r="I9" s="22">
+        <f t="shared" si="1"/>
+        <v>182677</v>
       </c>
       <c r="J9" s="28"/>
       <c r="K9" s="33">
@@ -1288,15 +1296,15 @@
         <v>2000</v>
       </c>
       <c r="G10" s="22">
-        <f>F10*K10</f>
+        <f t="shared" si="0"/>
         <v>162000</v>
       </c>
       <c r="H10" s="22">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="I10" s="22">
-        <f t="shared" si="0"/>
-        <v>159000</v>
+        <f t="shared" si="1"/>
+        <v>149000</v>
       </c>
       <c r="J10" s="28"/>
       <c r="K10" s="33">
@@ -1324,12 +1332,12 @@
         <v>2380</v>
       </c>
       <c r="G11" s="22">
-        <f>F11*K11</f>
+        <f t="shared" si="0"/>
         <v>192780</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>192780</v>
       </c>
       <c r="J11" s="28"/>
@@ -1354,16 +1362,16 @@
         <v>7</v>
       </c>
       <c r="F12" s="12">
-        <f t="shared" ref="F12:F13" si="2">D12*E12</f>
+        <f t="shared" ref="F12:F13" si="3">D12*E12</f>
         <v>1708</v>
       </c>
       <c r="G12" s="22">
-        <f>F12*K12</f>
+        <f t="shared" si="0"/>
         <v>138348</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>138348</v>
       </c>
       <c r="J12" s="28"/>
@@ -1388,16 +1396,16 @@
         <v>6</v>
       </c>
       <c r="F13" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1848</v>
       </c>
       <c r="G13" s="22">
-        <f>F13*K13</f>
+        <f t="shared" si="0"/>
         <v>149688</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>149688</v>
       </c>
       <c r="J13" s="28"/>
@@ -1421,12 +1429,12 @@
         <v>2000</v>
       </c>
       <c r="G14" s="22">
-        <f>F14*K14</f>
+        <f t="shared" si="0"/>
         <v>162000</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>162000</v>
       </c>
       <c r="J14" s="29"/>
@@ -1434,7 +1442,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1">
       <c r="A15" s="17">
         <v>13</v>
       </c>
@@ -1450,12 +1458,12 @@
         <v>2000</v>
       </c>
       <c r="G15" s="25">
-        <f>F15*K15</f>
+        <f t="shared" si="0"/>
         <v>162000</v>
       </c>
       <c r="H15" s="25"/>
       <c r="I15" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>162000</v>
       </c>
       <c r="J15" s="30"/>
@@ -1463,17 +1471,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1"/>
-    <row r="17" spans="6:9" ht="15" thickBot="1">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="17" spans="6:9" ht="15.75" thickBot="1">
       <c r="F17" s="31">
         <f>SUM(F3:F16)</f>
         <v>29061</v>
       </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
       <c r="I17" s="26">
         <f>SUM(I3:I16)</f>
-        <v>2345941</v>
+        <v>2295941</v>
       </c>
     </row>
   </sheetData>

--- a/Ofis Dosyalari/HAKEDISLER/2025/HAZIRAN 2025/2025 HAZIRAN AYI - TURKLER.xlsx
+++ b/Ofis Dosyalari/HAKEDISLER/2025/HAZIRAN 2025/2025 HAZIRAN AYI - TURKLER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\OfisDosyalariYedegi\Ofis Dosyalari\HAKEDISLER\2025\HAZIRAN 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8868683-10A0-43DF-BE18-8AF3FF45BBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA45CFD-909D-46EF-AB86-9F81FBE5DC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45" yWindow="30" windowWidth="28755" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>№</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>NET HAKEDIS</t>
+  </si>
+  <si>
+    <t>ODENDI</t>
   </si>
 </sst>
 </file>
@@ -196,12 +199,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="27">
@@ -576,7 +585,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -686,6 +695,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="ParaBirimi 2" xfId="3" xr:uid="{FB247420-4A8B-46B8-AD14-047A5DA77D80}"/>
@@ -970,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -990,7 +1000,7 @@
     <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
       <c r="A1" s="36" t="s">
         <v>28</v>
       </c>
@@ -1005,7 +1015,7 @@
       <c r="J1" s="37"/>
       <c r="K1" s="38"/>
     </row>
-    <row r="2" spans="1:11" ht="45.75" thickBot="1">
+    <row r="2" spans="1:12" ht="45.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1071,7 +1081,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1102,7 +1112,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1138,7 +1148,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1174,7 +1184,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1208,7 +1218,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1244,7 +1254,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1280,7 +1290,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1310,8 +1320,11 @@
       <c r="K10" s="33">
         <v>81</v>
       </c>
+      <c r="L10" s="39" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1345,7 +1358,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1379,7 +1392,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1413,7 +1426,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1442,7 +1455,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1">
       <c r="A15" s="17">
         <v>13</v>
       </c>
@@ -1471,7 +1484,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="17" spans="6:9" ht="15.75" thickBot="1">
       <c r="F17" s="31">
         <f>SUM(F3:F16)</f>
@@ -1489,5 +1502,6 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ofis Dosyalari/HAKEDISLER/2025/HAZIRAN 2025/2025 HAZIRAN AYI - TURKLER.xlsx
+++ b/Ofis Dosyalari/HAKEDISLER/2025/HAZIRAN 2025/2025 HAZIRAN AYI - TURKLER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\OfisDosyalariYedegi\Ofis Dosyalari\HAKEDISLER\2025\HAZIRAN 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA45CFD-909D-46EF-AB86-9F81FBE5DC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BB5975-3F55-40F6-8BCB-9551A1C3FF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45" yWindow="30" windowWidth="28755" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>№</t>
   </si>
@@ -126,13 +126,16 @@
     <t>HAZIRAN SAATI</t>
   </si>
   <si>
-    <t>AVANS</t>
-  </si>
-  <si>
     <t>NET HAKEDIS</t>
   </si>
   <si>
     <t>ODENDI</t>
+  </si>
+  <si>
+    <t>AVANS1</t>
+  </si>
+  <si>
+    <t>AVANS2</t>
   </si>
 </sst>
 </file>
@@ -686,6 +689,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -695,7 +699,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="ParaBirimi 2" xfId="3" xr:uid="{FB247420-4A8B-46B8-AD14-047A5DA77D80}"/>
@@ -980,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -995,27 +998,29 @@
     <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
       <c r="K1" s="38"/>
+      <c r="L1" s="39"/>
     </row>
-    <row r="2" spans="1:12" ht="45.75" thickBot="1">
+    <row r="2" spans="1:13" ht="45.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1038,19 +1043,22 @@
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1066,22 +1074,25 @@
         <v>2500</v>
       </c>
       <c r="G3" s="23">
-        <f t="shared" ref="G3:G15" si="0">F3*K3</f>
+        <f t="shared" ref="G3:G15" si="0">F3*L3</f>
         <v>202500</v>
       </c>
       <c r="H3" s="23">
         <v>10000</v>
       </c>
       <c r="I3" s="23">
-        <f>G3-H3</f>
-        <v>192500</v>
-      </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="32">
+        <v>10000</v>
+      </c>
+      <c r="J3" s="23">
+        <f>G3-H3-I3</f>
+        <v>182500</v>
+      </c>
+      <c r="K3" s="27"/>
+      <c r="L3" s="32">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1101,18 +1112,21 @@
         <v>202500</v>
       </c>
       <c r="H4" s="22">
+        <v>80000</v>
+      </c>
+      <c r="I4" s="22">
         <v>15000</v>
       </c>
-      <c r="I4" s="22">
-        <f t="shared" ref="I4:I15" si="1">G4-H4</f>
-        <v>187500</v>
-      </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="33">
+      <c r="J4" s="22">
+        <f t="shared" ref="J4:J15" si="1">G4-H4-I4</f>
+        <v>107500</v>
+      </c>
+      <c r="K4" s="28"/>
+      <c r="L4" s="33">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1137,18 +1151,21 @@
         <v>199017</v>
       </c>
       <c r="H5" s="22">
+        <v>80000</v>
+      </c>
+      <c r="I5" s="22">
         <v>5000</v>
       </c>
-      <c r="I5" s="22">
+      <c r="J5" s="22">
         <f t="shared" si="1"/>
-        <v>194017</v>
-      </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="33">
+        <v>114017</v>
+      </c>
+      <c r="K5" s="28"/>
+      <c r="L5" s="33">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1173,18 +1190,21 @@
         <v>206388</v>
       </c>
       <c r="H6" s="22">
+        <v>80000</v>
+      </c>
+      <c r="I6" s="22">
         <v>5000</v>
       </c>
-      <c r="I6" s="22">
+      <c r="J6" s="22">
         <f t="shared" si="1"/>
-        <v>201388</v>
-      </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="33">
+        <v>121388</v>
+      </c>
+      <c r="K6" s="28"/>
+      <c r="L6" s="33">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1208,17 +1228,20 @@
         <f t="shared" si="0"/>
         <v>183222</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22">
+      <c r="H7" s="22">
+        <v>183222</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22">
         <f t="shared" si="1"/>
-        <v>183222</v>
-      </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="33">
+        <v>0</v>
+      </c>
+      <c r="K7" s="28"/>
+      <c r="L7" s="33">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1243,18 +1266,21 @@
         <v>205821</v>
       </c>
       <c r="H8" s="22">
+        <v>80000</v>
+      </c>
+      <c r="I8" s="22">
         <v>5000</v>
       </c>
-      <c r="I8" s="22">
+      <c r="J8" s="22">
         <f t="shared" si="1"/>
-        <v>200821</v>
-      </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="33">
+        <v>120821</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="33">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1279,18 +1305,21 @@
         <v>187677</v>
       </c>
       <c r="H9" s="22">
+        <v>80000</v>
+      </c>
+      <c r="I9" s="22">
         <v>5000</v>
       </c>
-      <c r="I9" s="22">
+      <c r="J9" s="22">
         <f t="shared" si="1"/>
-        <v>182677</v>
-      </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="33">
+        <v>102677</v>
+      </c>
+      <c r="K9" s="28"/>
+      <c r="L9" s="33">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1312,19 +1341,20 @@
       <c r="H10" s="22">
         <v>13000</v>
       </c>
-      <c r="I10" s="22">
-        <f t="shared" si="1"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22">
+        <f>G10-H10-I10</f>
         <v>149000</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="33">
+      <c r="K10" s="28"/>
+      <c r="L10" s="33">
         <v>81</v>
       </c>
-      <c r="L10" s="39" t="s">
-        <v>32</v>
+      <c r="M10" s="36" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1348,17 +1378,22 @@
         <f t="shared" si="0"/>
         <v>192780</v>
       </c>
-      <c r="H11" s="22"/>
+      <c r="H11" s="22">
+        <v>80000</v>
+      </c>
       <c r="I11" s="22">
+        <v>10000</v>
+      </c>
+      <c r="J11" s="22">
         <f t="shared" si="1"/>
-        <v>192780</v>
-      </c>
-      <c r="J11" s="28"/>
-      <c r="K11" s="33">
+        <v>102780</v>
+      </c>
+      <c r="K11" s="28"/>
+      <c r="L11" s="33">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1382,17 +1417,20 @@
         <f t="shared" si="0"/>
         <v>138348</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22">
+      <c r="H12" s="22">
+        <v>80000</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22">
         <f t="shared" si="1"/>
-        <v>138348</v>
-      </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="33">
+        <v>58348</v>
+      </c>
+      <c r="K12" s="28"/>
+      <c r="L12" s="33">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1416,17 +1454,20 @@
         <f t="shared" si="0"/>
         <v>149688</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22">
+      <c r="H13" s="22">
+        <v>80000</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22">
         <f t="shared" si="1"/>
-        <v>149688</v>
-      </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="33">
+        <v>69688</v>
+      </c>
+      <c r="K13" s="28"/>
+      <c r="L13" s="33">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1445,17 +1486,20 @@
         <f t="shared" si="0"/>
         <v>162000</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22">
+      <c r="H14" s="22">
+        <v>162000</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22">
         <f t="shared" si="1"/>
-        <v>162000</v>
-      </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="33">
+        <v>0</v>
+      </c>
+      <c r="K14" s="29"/>
+      <c r="L14" s="33">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1">
+    <row r="15" spans="1:13" ht="15.75" thickBot="1">
       <c r="A15" s="17">
         <v>13</v>
       </c>
@@ -1474,32 +1518,36 @@
         <f t="shared" si="0"/>
         <v>162000</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25">
+      <c r="H15" s="25">
+        <v>80000</v>
+      </c>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25">
         <f t="shared" si="1"/>
-        <v>162000</v>
-      </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="34">
+        <v>82000</v>
+      </c>
+      <c r="K15" s="30"/>
+      <c r="L15" s="34">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="17" spans="6:9" ht="15.75" thickBot="1">
+    <row r="16" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="17" spans="6:10" ht="15.75" thickBot="1">
       <c r="F17" s="31">
         <f>SUM(F3:F16)</f>
         <v>29061</v>
       </c>
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
-      <c r="I17" s="26">
-        <f>SUM(I3:I16)</f>
-        <v>2295941</v>
+      <c r="I17" s="35"/>
+      <c r="J17" s="26">
+        <f>SUM(J3:J16)</f>
+        <v>1210719</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Ofis Dosyalari/HAKEDISLER/2025/HAZIRAN 2025/2025 HAZIRAN AYI - TURKLER.xlsx
+++ b/Ofis Dosyalari/HAKEDISLER/2025/HAZIRAN 2025/2025 HAZIRAN AYI - TURKLER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\OfisDosyalariYedegi\Ofis Dosyalari\HAKEDISLER\2025\HAZIRAN 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BB5975-3F55-40F6-8BCB-9551A1C3FF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BB1924-0E72-446C-9E80-7E3CD02BBEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="30" windowWidth="28755" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>№</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>AVANS2</t>
+  </si>
+  <si>
+    <t>AVANS3</t>
   </si>
 </sst>
 </file>
@@ -983,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -999,12 +1002,12 @@
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1">
       <c r="A1" s="37" t="s">
         <v>28</v>
       </c>
@@ -1018,9 +1021,10 @@
       <c r="I1" s="38"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
-      <c r="L1" s="39"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="39"/>
     </row>
-    <row r="2" spans="1:13" ht="45.75" thickBot="1">
+    <row r="2" spans="1:14" ht="45.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1049,16 +1053,19 @@
         <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1074,7 +1081,7 @@
         <v>2500</v>
       </c>
       <c r="G3" s="23">
-        <f t="shared" ref="G3:G15" si="0">F3*L3</f>
+        <f t="shared" ref="G3:G15" si="0">F3*M3</f>
         <v>202500</v>
       </c>
       <c r="H3" s="23">
@@ -1083,16 +1090,17 @@
       <c r="I3" s="23">
         <v>10000</v>
       </c>
-      <c r="J3" s="23">
-        <f>G3-H3-I3</f>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23">
+        <f>G3-H3-I3-J3</f>
         <v>182500</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="32">
+      <c r="L3" s="27"/>
+      <c r="M3" s="32">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1118,15 +1126,18 @@
         <v>15000</v>
       </c>
       <c r="J4" s="22">
-        <f t="shared" ref="J4:J15" si="1">G4-H4-I4</f>
-        <v>107500</v>
-      </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="33">
+        <v>10000</v>
+      </c>
+      <c r="K4" s="22">
+        <f t="shared" ref="K4:K15" si="1">G4-H4-I4-J4</f>
+        <v>97500</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="33">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1157,15 +1168,18 @@
         <v>5000</v>
       </c>
       <c r="J5" s="22">
+        <v>10000</v>
+      </c>
+      <c r="K5" s="22">
         <f t="shared" si="1"/>
-        <v>114017</v>
-      </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="33">
+        <v>104017</v>
+      </c>
+      <c r="L5" s="28"/>
+      <c r="M5" s="33">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1196,15 +1210,18 @@
         <v>5000</v>
       </c>
       <c r="J6" s="22">
+        <v>10000</v>
+      </c>
+      <c r="K6" s="22">
         <f t="shared" si="1"/>
-        <v>121388</v>
-      </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="33">
+        <v>111388</v>
+      </c>
+      <c r="L6" s="28"/>
+      <c r="M6" s="33">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1232,16 +1249,17 @@
         <v>183222</v>
       </c>
       <c r="I7" s="22"/>
-      <c r="J7" s="22">
+      <c r="J7" s="22"/>
+      <c r="K7" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="33">
+      <c r="L7" s="28"/>
+      <c r="M7" s="33">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1272,15 +1290,18 @@
         <v>5000</v>
       </c>
       <c r="J8" s="22">
+        <v>10000</v>
+      </c>
+      <c r="K8" s="22">
         <f t="shared" si="1"/>
-        <v>120821</v>
-      </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="33">
+        <v>110821</v>
+      </c>
+      <c r="L8" s="28"/>
+      <c r="M8" s="33">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1311,15 +1332,18 @@
         <v>5000</v>
       </c>
       <c r="J9" s="22">
+        <v>10000</v>
+      </c>
+      <c r="K9" s="22">
         <f t="shared" si="1"/>
-        <v>102677</v>
-      </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="33">
+        <v>92677</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="33">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1342,19 +1366,20 @@
         <v>13000</v>
       </c>
       <c r="I10" s="22"/>
-      <c r="J10" s="22">
-        <f>G10-H10-I10</f>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22">
+        <f t="shared" si="1"/>
         <v>149000</v>
       </c>
-      <c r="K10" s="28"/>
-      <c r="L10" s="33">
+      <c r="L10" s="28"/>
+      <c r="M10" s="33">
         <v>81</v>
       </c>
-      <c r="M10" s="36" t="s">
+      <c r="N10" s="36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1384,16 +1409,17 @@
       <c r="I11" s="22">
         <v>10000</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="22"/>
+      <c r="K11" s="22">
         <f t="shared" si="1"/>
         <v>102780</v>
       </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="33">
+      <c r="L11" s="28"/>
+      <c r="M11" s="33">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1421,16 +1447,17 @@
         <v>80000</v>
       </c>
       <c r="I12" s="22"/>
-      <c r="J12" s="22">
+      <c r="J12" s="22"/>
+      <c r="K12" s="22">
         <f t="shared" si="1"/>
         <v>58348</v>
       </c>
-      <c r="K12" s="28"/>
-      <c r="L12" s="33">
+      <c r="L12" s="28"/>
+      <c r="M12" s="33">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1458,16 +1485,17 @@
         <v>80000</v>
       </c>
       <c r="I13" s="22"/>
-      <c r="J13" s="22">
+      <c r="J13" s="22"/>
+      <c r="K13" s="22">
         <f t="shared" si="1"/>
         <v>69688</v>
       </c>
-      <c r="K13" s="28"/>
-      <c r="L13" s="33">
+      <c r="L13" s="28"/>
+      <c r="M13" s="33">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1490,16 +1518,17 @@
         <v>162000</v>
       </c>
       <c r="I14" s="22"/>
-      <c r="J14" s="22">
+      <c r="J14" s="22"/>
+      <c r="K14" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="33">
+      <c r="L14" s="29"/>
+      <c r="M14" s="33">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1">
       <c r="A15" s="17">
         <v>13</v>
       </c>
@@ -1522,17 +1551,18 @@
         <v>80000</v>
       </c>
       <c r="I15" s="25"/>
-      <c r="J15" s="25">
+      <c r="J15" s="25"/>
+      <c r="K15" s="25">
         <f t="shared" si="1"/>
         <v>82000</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="34">
+      <c r="L15" s="30"/>
+      <c r="M15" s="34">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="17" spans="6:10" ht="15.75" thickBot="1">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="17" spans="6:11" ht="15.75" thickBot="1">
       <c r="F17" s="31">
         <f>SUM(F3:F16)</f>
         <v>29061</v>
@@ -1540,14 +1570,15 @@
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
-      <c r="J17" s="26">
-        <f>SUM(J3:J16)</f>
-        <v>1210719</v>
+      <c r="J17" s="35"/>
+      <c r="K17" s="26">
+        <f>SUM(K3:K16)</f>
+        <v>1160719</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Ofis Dosyalari/HAKEDISLER/2025/HAZIRAN 2025/2025 HAZIRAN AYI - TURKLER.xlsx
+++ b/Ofis Dosyalari/HAKEDISLER/2025/HAZIRAN 2025/2025 HAZIRAN AYI - TURKLER.xlsx
@@ -768,7 +768,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1335,10 +1335,12 @@
         <v>80000</v>
       </c>
       <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
+      <c r="J15" s="32" t="n">
+        <v>82000</v>
+      </c>
       <c r="K15" s="32" t="n">
         <f aca="false">G15-H15-I15-J15</f>
-        <v>82000</v>
+        <v>0</v>
       </c>
       <c r="L15" s="33"/>
       <c r="M15" s="34" t="n">
@@ -1356,7 +1358,7 @@
       <c r="J17" s="36"/>
       <c r="K17" s="37" t="n">
         <f aca="false">SUM(K3:K16)</f>
-        <v>1110719</v>
+        <v>1028719</v>
       </c>
     </row>
   </sheetData>
